--- a/data/excel/802576637_2024_invoices.xlsx
+++ b/data/excel/802576637_2024_invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,90 +441,50 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>ΑΦΜ</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>AFM</t>
+          <t>Επωνυμία</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Σειρά</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>issueDate</t>
+          <t>Αριθμός</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>totalValue</t>
+          <t>Ημερομηνία</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>category</t>
+          <t>Είδος</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>note</t>
+          <t>ΦΠΑ_ΚΑΤΗΓΟΡΙΑ</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>created_at</t>
+          <t>Καθαρή Αξία</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ΑΦΜ</t>
+          <t>ΦΠΑ</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Επωνυμία</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Σειρά</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Αριθμός</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Ημερομηνία</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Είδος</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>ΦΠΑ_ΚΑΤΗΓΟΡΙΑ</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Καθαρή Αξία</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>ΦΠΑ</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Σύνολο</t>
         </is>
@@ -536,52 +496,44 @@
           <t>400008169441425</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159712098</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ΤΠΥ</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3476</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>31/12/2024</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>150,00</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>159712098</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>ΤΠΥ</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>3476</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>31/12/2024</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>2.1</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>150,00</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
           <t>36,00</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>186,00</t>
         </is>
